--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFBEC03-D9FE-4439-8AE8-A853781B5D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B4B66-B003-4030-B924-0FC861DDB097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5694,14 +5694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1612" workbookViewId="0">
-      <selection activeCell="A1489" sqref="A1489"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="138.88671875" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="1" max="1" width="161.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -7329,13 +7329,16 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
       <c r="B204" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -7343,23 +7346,23 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
@@ -7383,7 +7386,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
@@ -7391,15 +7394,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -7407,7 +7410,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -7415,31 +7418,31 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
@@ -7447,23 +7450,23 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -7471,31 +7474,31 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -7503,7 +7506,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -7511,15 +7514,15 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -7527,7 +7530,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
@@ -7535,7 +7538,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
@@ -7543,7 +7546,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
@@ -7559,23 +7562,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
@@ -7583,7 +7586,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
@@ -7591,7 +7594,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -7599,7 +7602,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
@@ -7607,7 +7610,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
@@ -7615,31 +7618,31 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -7647,7 +7650,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -7655,7 +7658,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -7663,7 +7666,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -7671,23 +7674,23 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -7695,15 +7698,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
@@ -7711,15 +7714,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -7727,7 +7730,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -7735,7 +7738,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -7743,15 +7746,15 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
@@ -7759,15 +7762,15 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -7775,7 +7778,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -7791,7 +7794,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -7799,15 +7802,15 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
@@ -7815,7 +7818,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -7823,23 +7826,23 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
@@ -7847,23 +7850,23 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
@@ -7871,15 +7874,15 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -7887,7 +7890,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -7895,15 +7898,15 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
@@ -7911,31 +7914,31 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -7943,15 +7946,15 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
@@ -7967,7 +7970,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
@@ -7975,39 +7978,39 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
@@ -8015,7 +8018,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B290" t="s">
         <v>3</v>
@@ -8023,15 +8026,15 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -8039,7 +8042,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -8047,15 +8050,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B295" t="s">
         <v>3</v>
@@ -8063,23 +8066,23 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B298" t="s">
         <v>3</v>
@@ -8087,31 +8090,31 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -8119,15 +8122,15 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B304" t="s">
         <v>3</v>
@@ -8135,7 +8138,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B305" t="s">
         <v>3</v>
@@ -8143,15 +8146,15 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -8159,23 +8162,23 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -8183,15 +8186,15 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
@@ -8199,23 +8202,23 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B315" t="s">
         <v>3</v>
@@ -8223,7 +8226,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B316" t="s">
         <v>3</v>
@@ -8231,15 +8234,15 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
@@ -8247,15 +8250,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B320" t="s">
         <v>3</v>
@@ -8263,7 +8266,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B322" t="s">
         <v>3</v>
@@ -8279,7 +8282,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B323" t="s">
         <v>3</v>
@@ -8287,7 +8290,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
@@ -8295,23 +8298,23 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B327" t="s">
         <v>3</v>
@@ -8319,7 +8322,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
@@ -8327,15 +8330,15 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
@@ -8343,47 +8346,47 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B336" t="s">
         <v>3</v>
@@ -8391,71 +8394,71 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B345" t="s">
         <v>3</v>
@@ -8463,7 +8466,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
@@ -8471,7 +8474,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
@@ -8487,7 +8490,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
@@ -8495,7 +8498,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
@@ -8503,7 +8506,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B351" t="s">
         <v>3</v>
@@ -8511,7 +8514,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
@@ -8519,7 +8522,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B353" t="s">
         <v>3</v>
@@ -8527,7 +8530,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B354" t="s">
         <v>3</v>
@@ -8535,7 +8538,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B355" t="s">
         <v>3</v>
@@ -8543,7 +8546,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B356" t="s">
         <v>3</v>
@@ -8551,7 +8554,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B357" t="s">
         <v>3</v>
@@ -8559,7 +8562,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B358" t="s">
         <v>3</v>
@@ -8567,7 +8570,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B359" t="s">
         <v>3</v>
@@ -8575,7 +8578,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B360" t="s">
         <v>3</v>
@@ -8583,7 +8586,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B361" t="s">
         <v>3</v>
@@ -8591,7 +8594,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B362" t="s">
         <v>3</v>
@@ -8599,7 +8602,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B363" t="s">
         <v>3</v>
@@ -8607,7 +8610,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B364" t="s">
         <v>3</v>
@@ -8615,7 +8618,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B365" t="s">
         <v>3</v>
@@ -8623,7 +8626,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
@@ -8631,15 +8634,15 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8647,7 +8650,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8655,39 +8658,39 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8695,15 +8698,15 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B376" t="s">
         <v>3</v>
@@ -8711,7 +8714,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B377" t="s">
         <v>3</v>
@@ -8719,7 +8722,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B378" t="s">
         <v>3</v>
@@ -8727,7 +8730,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B379" t="s">
         <v>3</v>
@@ -8735,7 +8738,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B380" t="s">
         <v>3</v>
@@ -8743,7 +8746,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B381" t="s">
         <v>3</v>
@@ -8751,7 +8754,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B382" t="s">
         <v>3</v>
@@ -8759,15 +8762,15 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -8775,7 +8778,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -8783,15 +8786,15 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B387" t="s">
         <v>3</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B388" t="s">
         <v>3</v>
@@ -8807,15 +8810,15 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
@@ -8823,23 +8826,23 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8847,23 +8850,23 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8871,15 +8874,15 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B398" t="s">
         <v>3</v>
@@ -8887,7 +8890,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B399" t="s">
         <v>3</v>
@@ -8895,7 +8898,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B400" t="s">
         <v>3</v>
@@ -8903,23 +8906,23 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B403" t="s">
         <v>3</v>
@@ -8927,23 +8930,23 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B406" t="s">
         <v>3</v>
@@ -8951,7 +8954,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B407" t="s">
         <v>3</v>
@@ -8959,7 +8962,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B408" t="s">
         <v>3</v>
@@ -8967,7 +8970,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B409" t="s">
         <v>3</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B410" t="s">
         <v>3</v>
@@ -8983,7 +8986,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B411" t="s">
         <v>3</v>
@@ -8991,15 +8994,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B413" t="s">
         <v>6</v>
@@ -9007,7 +9010,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B414" t="s">
         <v>6</v>
@@ -9015,7 +9018,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B415" t="s">
         <v>6</v>
@@ -9023,7 +9026,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B416" t="s">
         <v>6</v>
@@ -9031,15 +9034,15 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B418" t="s">
         <v>3</v>
@@ -9047,23 +9050,23 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B421" t="s">
         <v>3</v>
@@ -9071,39 +9074,39 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B425" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B426" t="s">
         <v>3</v>
@@ -9111,23 +9114,23 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B427" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B428" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B429" t="s">
         <v>3</v>
@@ -9135,7 +9138,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B430" t="s">
         <v>3</v>
@@ -9143,7 +9146,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B431" t="s">
         <v>3</v>
@@ -9151,7 +9154,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B432" t="s">
         <v>3</v>
@@ -9159,15 +9162,15 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="B433" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
@@ -9175,7 +9178,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>336</v>
+        <v>435</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
@@ -9183,7 +9186,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -9191,7 +9194,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B437" t="s">
         <v>6</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B438" t="s">
         <v>6</v>
@@ -9207,23 +9210,23 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B441" t="s">
         <v>6</v>
@@ -9231,15 +9234,15 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B443" t="s">
         <v>3</v>
@@ -9247,15 +9250,15 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B445" t="s">
         <v>6</v>
@@ -9263,7 +9266,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B446" t="s">
         <v>6</v>
@@ -9271,7 +9274,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B447" t="s">
         <v>6</v>
@@ -9279,7 +9282,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B448" t="s">
         <v>6</v>
@@ -9287,7 +9290,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B449" t="s">
         <v>6</v>
@@ -9295,15 +9298,15 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B451" t="s">
         <v>3</v>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B452" t="s">
         <v>3</v>
@@ -9319,7 +9322,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B453" t="s">
         <v>3</v>
@@ -9327,15 +9330,15 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
@@ -9343,7 +9346,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
@@ -9351,7 +9354,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
@@ -9359,15 +9362,15 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B459" t="s">
         <v>3</v>
@@ -9375,7 +9378,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B460" t="s">
         <v>3</v>
@@ -9383,15 +9386,15 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -9399,15 +9402,15 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B464" t="s">
         <v>3</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B465" t="s">
         <v>3</v>
@@ -9423,7 +9426,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B466" t="s">
         <v>3</v>
@@ -9431,7 +9434,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B467" t="s">
         <v>3</v>
@@ -9439,7 +9442,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B468" t="s">
         <v>3</v>
@@ -9447,7 +9450,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B469" t="s">
         <v>3</v>
@@ -9455,15 +9458,15 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B471" t="s">
         <v>6</v>
@@ -9471,7 +9474,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B472" t="s">
         <v>6</v>
@@ -9479,7 +9482,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473" t="s">
         <v>6</v>
@@ -9487,23 +9490,23 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B476" t="s">
         <v>6</v>
@@ -9511,47 +9514,47 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482" t="s">
         <v>3</v>
@@ -9559,7 +9562,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483" t="s">
         <v>3</v>
@@ -9567,7 +9570,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484" t="s">
         <v>3</v>
@@ -9575,7 +9578,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485" t="s">
         <v>3</v>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486" t="s">
         <v>3</v>
@@ -9591,7 +9594,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487" t="s">
         <v>3</v>
@@ -9599,7 +9602,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488" t="s">
         <v>3</v>
@@ -9607,15 +9610,15 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
@@ -9623,39 +9626,39 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
@@ -9663,26 +9666,23 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>497</v>
-      </c>
       <c r="B498" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">

--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B4B66-B003-4030-B924-0FC861DDB097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D01654D-ACD6-455A-9A05-34BA8766AB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5694,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1783"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A1210" workbookViewId="0">
+      <selection activeCell="A1213" sqref="A1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
